--- a/pkg/excels/templates/Шаблон для импорта СТВТ.xlsx
+++ b/pkg/excels/templates/Шаблон для импорта СТВТ.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mamad\OneDrive\Desktop\ТГЭМ\backend-v2\pkg\excels\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F27F1B-DB51-4481-A0C2-831558F88615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Импорт" sheetId="1" r:id="rId1"/>
-    <sheet name="Супервайзеры" sheetId="2" r:id="rId2"/>
+    <sheet name="СТВТ" sheetId="1" r:id="rId1"/>
+    <sheet name="Бригады" sheetId="3" r:id="rId2"/>
+    <sheet name="Супервайзеры" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Имя</t>
   </si>
@@ -35,11 +37,11 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="12"/>
         <scheme val="minor"/>
       </rPr>
       <t>*</t>
@@ -51,11 +53,11 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="12"/>
         <scheme val="minor"/>
       </rPr>
       <t>*</t>
@@ -63,15 +65,15 @@
   </si>
   <si>
     <r>
-      <t>Супервайзер</t>
+      <t>Класс напряжения</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="12"/>
         <scheme val="minor"/>
       </rPr>
       <t>*</t>
@@ -79,51 +81,35 @@
   </si>
   <si>
     <r>
-      <t>Класс напряжения</t>
+      <t>ТТ Коэффицент</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="12"/>
         <scheme val="minor"/>
       </rPr>
       <t>*</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>ТТ Коэффицент</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="12"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <t>Сиаваш</t>
-  </si>
-  <si>
-    <t>Шахзод</t>
-  </si>
-  <si>
-    <t>Мурод</t>
+    <t>Супервайзер</t>
+  </si>
+  <si>
+    <t>Бригада</t>
+  </si>
+  <si>
+    <t>Бригады</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,7 +118,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -140,7 +126,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -148,7 +134,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -178,14 +164,14 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -198,7 +184,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -460,22 +446,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -491,22 +478,34 @@
       <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B159" xr:uid="{97E180B8-70D3-40D7-9813-50FDDD79F612}">
       <formula1>"  В ожидании, Идет работа, Работа завершена,   Сдано заказчику,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{4B475DF3-5C0A-4DF1-A459-425E73B3B6A8}">
+      <formula1>"6кВ, 10кВ, 20кВ, 35кВ"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F8D1B3DC-4DE7-4F45-ACEC-014DB6ED8F00}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C5B9917F-9767-48CE-B24B-6E221FFCF741}">
           <x14:formula1>
-            <xm:f>Супервайзеры!$A$2:$A$58</xm:f>
+            <xm:f>Супервайзеры!$A$2:$A$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C157</xm:sqref>
+          <xm:sqref>E2:E1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{63F9BF6C-0923-4C66-AF3D-160998306F70}">
+          <x14:formula1>
+            <xm:f>Бригады!$A$2:$A$58</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -515,33 +514,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5071E1-C0DA-4876-87DF-F8108C1EBEAA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="193" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097094F9-7E6F-44E4-B859-0524084CD09F}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/pkg/excels/templates/Шаблон для импорта СТВТ.xlsx
+++ b/pkg/excels/templates/Шаблон для импорта СТВТ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mamad\OneDrive\Desktop\ТГЭМ\backend-v2\pkg\excels\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F27F1B-DB51-4481-A0C2-831558F88615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C08E180-EFC6-46F6-AF17-036A0C9A4F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СТВТ" sheetId="1" r:id="rId1"/>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,7 +484,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B159" xr:uid="{97E180B8-70D3-40D7-9813-50FDDD79F612}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B159 B2" xr:uid="{97E180B8-70D3-40D7-9813-50FDDD79F612}">
       <formula1>"  В ожидании, Идет работа, Работа завершена,   Сдано заказчику,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{4B475DF3-5C0A-4DF1-A459-425E73B3B6A8}">
@@ -517,7 +517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5071E1-C0DA-4876-87DF-F8108C1EBEAA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="193" workbookViewId="0">
+    <sheetView zoomScale="193" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
